--- a/cbrunner/Parameters/LUT_regentype.xlsx
+++ b/cbrunner/Parameters/LUT_regentype.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Data\BC1ha\LUTs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEC3A84-E3CF-4474-BC5D-53CFE1F431D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B40ADBC-12DA-46B4-990D-808324970C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="18240" xr2:uid="{8D94783A-D65D-497C-8209-138820888057}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="14400" xr2:uid="{8D94783A-D65D-497C-8209-138820888057}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,9 +157,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -197,7 +197,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -303,7 +303,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,17 +456,17 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -500,7 +500,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -518,7 +518,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -527,16 +527,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="D4" s="1">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -554,7 +554,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -644,7 +644,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -662,7 +662,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
